--- a/sentenceProblems.xlsx
+++ b/sentenceProblems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabrinado/Desktop/PsychoPy/RSpan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B80B00E-6B2F-BF4D-AB76-7B3531668DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4ECD30-5FEE-5043-AD42-5E8B2369472E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="540" windowWidth="28040" windowHeight="16200" xr2:uid="{8BB30E02-AEE8-0F4B-B5FE-2974F3C59366}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16200" xr2:uid="{8BB30E02-AEE8-0F4B-B5FE-2974F3C59366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
